--- a/experimental-setup/13.03 media-encyclopaedia.xlsx
+++ b/experimental-setup/13.03 media-encyclopaedia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E2A76-64EE-46B2-8C46-F3F051473B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D446E1DC-AD4C-41CD-8F5C-4E1DF2706549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Components</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Sodium Chloride</t>
   </si>
   <si>
-    <t>Merck</t>
-  </si>
-  <si>
     <t>https://uk.vwr.com/store/product/777250/sodium-chloride-suprapur-for-trace-analysis-supelco</t>
   </si>
   <si>
@@ -109,6 +106,81 @@
   </si>
   <si>
     <t>Tryptic soy broth powder</t>
+  </si>
+  <si>
+    <t>Gibco's DMEM (sans-phenol red)</t>
+  </si>
+  <si>
+    <t>Thermo-fisher</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/31053028?gclid=CjwKCAjwp8--BhBREiwAj7og1_1SUYFDkaCGZDpivuVQL0xLiqkm1LIm6mpPp0b_CQ9fQRGRtpADMBoC6_0QAvD_BwE&amp;ef_id=CjwKCAjwp8--BhBREiwAj7og1_1SUYFDkaCGZDpivuVQL0xLiqkm1LIm6mpPp0b_CQ9fQRGRtpADMBoC6_0QAvD_BwE:G:s&amp;s_kwcid=AL!3652!3!736021158655!!!g!!!21538747836!164856414399&amp;cid=bid_cbu_sbu_r04_nz_cp1240_pjt0000_bid00000_0se_gaw_dy_pur_con&amp;gad_source=1</t>
+  </si>
+  <si>
+    <t>GlutaMAX</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/35050061?gclid=CjwKCAjwp8--BhBREiwAj7og1ycvWl0_YxPp3WlGhlK43NaEvOu2VDqt6m1ywaUe_1qEwwbI2X0auhoCPMoQAvD_BwE&amp;ef_id=CjwKCAjwp8--BhBREiwAj7og1ycvWl0_YxPp3WlGhlK43NaEvOu2VDqt6m1ywaUe_1qEwwbI2X0auhoCPMoQAvD_BwE:G:s&amp;s_kwcid=AL!3652!3!736021158655!!!g!!!21538747836!164856414399&amp;cid=bid_cbu_sbu_r04_nz_cp1240_pjt0000_bid00000_0se_gaw_dy_pur_con&amp;gad_source=1</t>
+  </si>
+  <si>
+    <t>Fetal bovine serum (FBS)</t>
+  </si>
+  <si>
+    <t>NZ supplier</t>
+  </si>
+  <si>
+    <t>Na2HPO4 . 12H2O</t>
+  </si>
+  <si>
+    <t>Acid-hydrolyzed casein</t>
+  </si>
+  <si>
+    <t>Neogen</t>
+  </si>
+  <si>
+    <t>https://www.neogen.com/categories/microbiology/acid-hydrolysed-casein/</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/NZ/en/substance/sodiumphosphatedibasicdodecahydrate3581410039324</t>
+  </si>
+  <si>
+    <t>Merck?</t>
+  </si>
+  <si>
+    <t>Sigma-Aldrich</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/NZ/en/product/sigma/g7021?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=22193933438&amp;utm_content=177482747194&amp;gad_source=1&amp;gclid=CjwKCAjwp8--BhBREiwAj7og1wYyDI_4UvGnMgtcFeiiWP3jFASm8ijOJKxa1pVcRNIvYNu0d6HO8BoCrQUQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>G8270</t>
+  </si>
+  <si>
+    <t>NCM02394</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/NZ/en/product/mm/105886?srsltid=AfmBOooOGmGg7jIF0YN1ZdN9nbid-IPvD-45oPBDSbbz1790QXDYp4Xo</t>
+  </si>
+  <si>
+    <t>MgSO4 . 7H2O</t>
+  </si>
+  <si>
+    <t>Supelco</t>
+  </si>
+  <si>
+    <t>Tissue culture medium (TCM)</t>
+  </si>
+  <si>
+    <t>1L (DMEM)</t>
+  </si>
+  <si>
+    <t>Filter: 1% glucose, 5% FBS, 1X glutaMAX</t>
   </si>
 </sst>
 </file>
@@ -437,22 +509,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="75.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,105 +534,200 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
       <c r="L1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{788C2B84-D66F-4E4F-827F-C523123D5C31}"/>
-    <hyperlink ref="C3" r:id="rId2" location="/2-formato-500_g" xr:uid="{B1D0C234-B15F-432B-AF57-2630FDF7FA91}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{C4164339-80EF-43C8-82AE-E261CC35D072}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{712F6438-319E-45B4-B90D-67EB43C34D86}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{788C2B84-D66F-4E4F-827F-C523123D5C31}"/>
+    <hyperlink ref="D3" r:id="rId2" location="/2-formato-500_g" xr:uid="{B1D0C234-B15F-432B-AF57-2630FDF7FA91}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{C4164339-80EF-43C8-82AE-E261CC35D072}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{712F6438-319E-45B4-B90D-67EB43C34D86}"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://www.thermofisher.com/order/catalog/product/35050061?gclid=CjwKCAjwp8--BhBREiwAj7og1ycvWl0_YxPp3WlGhlK43NaEvOu2VDqt6m1ywaUe_1qEwwbI2X0auhoCPMoQAvD_BwE&amp;ef_id=CjwKCAjwp8--BhBREiwAj7og1ycvWl0_YxPp3WlGhlK43NaEvOu2VDqt6m1ywaUe_1qEwwbI2X0auhoCPMoQAvD_BwE:G:s&amp;s_kwcid=AL!3652!3!736021158655!!!g!!!21538747836!164856414399&amp;cid=bid_cbu_sbu_r04_nz_cp1240_pjt0000_bid00000_0se_gaw_dy_pur_con&amp;gad_source=1" xr:uid="{65F9FE63-00F2-4889-8051-E1E3E5D83FAC}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{D661E5CC-BEC6-4AAE-AEAE-51BDA68521A2}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{E2794A00-6B93-4447-B05E-10BE51237AA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experimental-setup/13.03 media-encyclopaedia.xlsx
+++ b/experimental-setup/13.03 media-encyclopaedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D446E1DC-AD4C-41CD-8F5C-4E1DF2706549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F79626D-05D0-4690-9AF3-E5E9AD08C558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Components</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>Filter: 1% glucose, 5% FBS, 1X glutaMAX</t>
+  </si>
+  <si>
+    <t>5X M8 salts</t>
+  </si>
+  <si>
+    <t>Autoclave: 42.76g Na2HPO4 . 12H2O</t>
+  </si>
+  <si>
+    <t>Solubility</t>
+  </si>
+  <si>
+    <t>40% (easiest at around 50C)</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>M8 media</t>
   </si>
 </sst>
 </file>
@@ -225,9 +243,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,9 +539,10 @@
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="75.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" customWidth="1"/>
     <col min="13" max="13" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,6 +557,9 @@
         <v>43</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
@@ -559,7 +582,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
@@ -576,7 +599,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
@@ -593,7 +616,7 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J4" t="s">
@@ -610,7 +633,7 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
@@ -627,6 +650,12 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -635,8 +664,11 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -646,7 +678,7 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -657,7 +689,7 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -676,7 +708,7 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -690,7 +722,10 @@
       <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -704,7 +739,10 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -716,18 +754,21 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{788C2B84-D66F-4E4F-827F-C523123D5C31}"/>
-    <hyperlink ref="D3" r:id="rId2" location="/2-formato-500_g" xr:uid="{B1D0C234-B15F-432B-AF57-2630FDF7FA91}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{C4164339-80EF-43C8-82AE-E261CC35D072}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{712F6438-319E-45B4-B90D-67EB43C34D86}"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://www.thermofisher.com/order/catalog/product/35050061?gclid=CjwKCAjwp8--BhBREiwAj7og1ycvWl0_YxPp3WlGhlK43NaEvOu2VDqt6m1ywaUe_1qEwwbI2X0auhoCPMoQAvD_BwE&amp;ef_id=CjwKCAjwp8--BhBREiwAj7og1ycvWl0_YxPp3WlGhlK43NaEvOu2VDqt6m1ywaUe_1qEwwbI2X0auhoCPMoQAvD_BwE:G:s&amp;s_kwcid=AL!3652!3!736021158655!!!g!!!21538747836!164856414399&amp;cid=bid_cbu_sbu_r04_nz_cp1240_pjt0000_bid00000_0se_gaw_dy_pur_con&amp;gad_source=1" xr:uid="{65F9FE63-00F2-4889-8051-E1E3E5D83FAC}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{D661E5CC-BEC6-4AAE-AEAE-51BDA68521A2}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{E2794A00-6B93-4447-B05E-10BE51237AA9}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{788C2B84-D66F-4E4F-827F-C523123D5C31}"/>
+    <hyperlink ref="E3" r:id="rId2" location="/2-formato-500_g" xr:uid="{B1D0C234-B15F-432B-AF57-2630FDF7FA91}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{C4164339-80EF-43C8-82AE-E261CC35D072}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{712F6438-319E-45B4-B90D-67EB43C34D86}"/>
+    <hyperlink ref="E9" r:id="rId5" display="https://www.thermofisher.com/order/catalog/product/35050061?gclid=CjwKCAjwp8--BhBREiwAj7og1ycvWl0_YxPp3WlGhlK43NaEvOu2VDqt6m1ywaUe_1qEwwbI2X0auhoCPMoQAvD_BwE&amp;ef_id=CjwKCAjwp8--BhBREiwAj7og1ycvWl0_YxPp3WlGhlK43NaEvOu2VDqt6m1ywaUe_1qEwwbI2X0auhoCPMoQAvD_BwE:G:s&amp;s_kwcid=AL!3652!3!736021158655!!!g!!!21538747836!164856414399&amp;cid=bid_cbu_sbu_r04_nz_cp1240_pjt0000_bid00000_0se_gaw_dy_pur_con&amp;gad_source=1" xr:uid="{65F9FE63-00F2-4889-8051-E1E3E5D83FAC}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{D661E5CC-BEC6-4AAE-AEAE-51BDA68521A2}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{E2794A00-6B93-4447-B05E-10BE51237AA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
